--- a/4. Age Well Housing/Data Guide.xlsx
+++ b/4. Age Well Housing/Data Guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmccall\Documents\GIT\Aging-and-Disability\Age Well Housing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmccall\Documents\GIT\Aging-and-Disability\4. Age Well Housing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FC39F8-A13F-47ED-9DA2-18BC25A60C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DA24DA-597E-4EC9-8A98-C8076783A7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0405D0AF-57D6-44C6-BB1C-249A29BD168C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0405D0AF-57D6-44C6-BB1C-249A29BD168C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1184,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E928985-CBB8-499D-B847-9B7B73480E5B}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
